--- a/Data/g3.3.xlsx
+++ b/Data/g3.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703ACFA-79AA-4B3A-AF2A-8776CCE165FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176603D-2D99-43D5-AADB-BDF072B8D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5EE33276-C1D1-43A9-A330-68D480F65DA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Período</t>
   </si>
@@ -63,37 +63,7 @@
     <t>2022/2010</t>
   </si>
   <si>
-    <t>2022/2011</t>
-  </si>
-  <si>
-    <t>2022/2012</t>
-  </si>
-  <si>
-    <t>2022/2013</t>
-  </si>
-  <si>
-    <t>2022/2014</t>
-  </si>
-  <si>
-    <t>2022/2015</t>
-  </si>
-  <si>
     <t>2022/2021</t>
-  </si>
-  <si>
-    <t>2022/2022</t>
-  </si>
-  <si>
-    <t>2022/2023</t>
-  </si>
-  <si>
-    <t>2022/2024</t>
-  </si>
-  <si>
-    <t>2022/2025</t>
-  </si>
-  <si>
-    <t>2022/2026</t>
   </si>
 </sst>
 </file>
@@ -448,10 +418,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -489,7 +462,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -506,7 +479,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -523,7 +496,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -540,7 +513,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -557,7 +530,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -574,7 +547,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -591,7 +564,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -608,7 +581,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -625,7 +598,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -642,7 +615,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -659,7 +632,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>

--- a/Data/g3.3.xlsx
+++ b/Data/g3.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176603D-2D99-43D5-AADB-BDF072B8D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A674B86-9D05-4D73-B858-7CC6375E4F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5EE33276-C1D1-43A9-A330-68D480F65DA2}"/>
   </bookViews>
@@ -99,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +419,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +445,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -461,7 +462,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -478,7 +479,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -495,7 +496,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -512,7 +513,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -529,7 +530,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -546,7 +547,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -563,7 +564,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -580,7 +581,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
@@ -597,7 +598,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -614,7 +615,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -631,7 +632,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">

--- a/Data/g3.3.xlsx
+++ b/Data/g3.3.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023/2010</t>
+          <t>2024/2010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13.88049015241204</v>
+        <v>13.66779441832582</v>
       </c>
       <c r="D2" t="n">
-        <v>22.90327426849183</v>
+        <v>26.7235526005577</v>
       </c>
       <c r="E2" t="n">
-        <v>15.79017056358001</v>
+        <v>20.66221432948787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023/2010</t>
+          <t>2024/2010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.173157633499947</v>
+        <v>3.415857052623439</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42532869847467</v>
+        <v>4.136794125280074</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.296169161060001</v>
+        <v>-0.2965810792255885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023/2010</t>
+          <t>2024/2010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.00570978339167</v>
+        <v>31.65866977514726</v>
       </c>
       <c r="D4" t="n">
-        <v>37.214558968792</v>
+        <v>47.31588066856978</v>
       </c>
       <c r="E4" t="n">
-        <v>3.022713533120314</v>
+        <v>24.32964737999714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023/2010</t>
+          <t>2024/2010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27.33509056418564</v>
+        <v>27.62931238300965</v>
       </c>
       <c r="D5" t="n">
-        <v>48.3754318371779</v>
+        <v>56.4060786169926</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.67102549143145</v>
+        <v>-8.314600061897027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023/2010</t>
+          <t>2024/2010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.38210891799302</v>
+        <v>25.7859331629938</v>
       </c>
       <c r="D6" t="n">
-        <v>57.45814918895318</v>
+        <v>63.05668613763338</v>
       </c>
       <c r="E6" t="n">
-        <v>23.4475971400453</v>
+        <v>27.00653331278087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023/2010</t>
+          <t>2024/2010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.37246990624836</v>
+        <v>12.72700105075479</v>
       </c>
       <c r="D7" t="n">
-        <v>3.158198443822746</v>
+        <v>6.947868756221642</v>
       </c>
       <c r="E7" t="n">
-        <v>50.681784126667</v>
+        <v>71.29214324958792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023/2022</t>
+          <t>2024/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.607358446231322</v>
+        <v>-0.1844570117514044</v>
       </c>
       <c r="D8" t="n">
-        <v>6.433372019130656</v>
+        <v>3.344993832340304</v>
       </c>
       <c r="E8" t="n">
-        <v>15.36031659729216</v>
+        <v>4.207648837716005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023/2022</t>
+          <t>2024/2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.603933123464373</v>
+        <v>-1.646545063193328</v>
       </c>
       <c r="D9" t="n">
-        <v>3.32951760164506</v>
+        <v>2.941735470000539</v>
       </c>
       <c r="E9" t="n">
-        <v>3.722621418059036</v>
+        <v>1.012714575856211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023/2022</t>
+          <t>2024/2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.442786825725407</v>
+        <v>6.823012050586064</v>
       </c>
       <c r="D10" t="n">
-        <v>4.015752622355007</v>
+        <v>9.607515568198988</v>
       </c>
       <c r="E10" t="n">
-        <v>17.23982564632753</v>
+        <v>20.68178279931152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023/2022</t>
+          <t>2024/2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.577100631414873</v>
+        <v>1.726868339108867</v>
       </c>
       <c r="D11" t="n">
-        <v>1.833737474606711</v>
+        <v>5.621579248202657</v>
       </c>
       <c r="E11" t="n">
-        <v>8.768227631175151</v>
+        <v>4.988522370781978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023/2022</t>
+          <t>2024/2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.260483311271021</v>
+        <v>0.2860830937304382</v>
       </c>
       <c r="D12" t="n">
-        <v>3.169679414235738</v>
+        <v>3.530685640615538</v>
       </c>
       <c r="E12" t="n">
-        <v>6.97354225533009</v>
+        <v>2.882952973720609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023/2022</t>
+          <t>2024/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-3.133288280972635</v>
+        <v>1.833274588282219</v>
       </c>
       <c r="D13" t="n">
-        <v>3.915576577282431</v>
+        <v>3.465999423009913</v>
       </c>
       <c r="E13" t="n">
-        <v>24.60143071915941</v>
+        <v>13.67806947759216</v>
       </c>
     </row>
   </sheetData>
